--- a/Code/Results/Cases/Case_3_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_223/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9874857713809158</v>
+        <v>1.017265498297682</v>
       </c>
       <c r="D2">
-        <v>1.007575522377288</v>
+        <v>1.022552066106101</v>
       </c>
       <c r="E2">
-        <v>0.9956876535536824</v>
+        <v>1.018687445170994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037920193982882</v>
+        <v>1.026631938829507</v>
       </c>
       <c r="J2">
-        <v>1.010047333957283</v>
+        <v>1.022480596013615</v>
       </c>
       <c r="K2">
-        <v>1.018930317464138</v>
+        <v>1.025386111524837</v>
       </c>
       <c r="L2">
-        <v>1.007207394952278</v>
+        <v>1.021532920243654</v>
       </c>
       <c r="N2">
-        <v>1.011481717025539</v>
+        <v>1.023932635740118</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9915434767672203</v>
+        <v>1.01812685219142</v>
       </c>
       <c r="D3">
-        <v>1.010305404988201</v>
+        <v>1.023145628004424</v>
       </c>
       <c r="E3">
-        <v>0.9988775608104613</v>
+        <v>1.019415355757227</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038601071891504</v>
+        <v>1.026713740711176</v>
       </c>
       <c r="J3">
-        <v>1.012267360264413</v>
+        <v>1.02297822480766</v>
       </c>
       <c r="K3">
-        <v>1.02080810269078</v>
+        <v>1.025786946181015</v>
       </c>
       <c r="L3">
-        <v>1.009524823630364</v>
+        <v>1.022066909360582</v>
       </c>
       <c r="N3">
-        <v>1.013704896024678</v>
+        <v>1.024430971224129</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9941189377028496</v>
+        <v>1.018684726435612</v>
       </c>
       <c r="D4">
-        <v>1.012039952795961</v>
+        <v>1.023529876056189</v>
       </c>
       <c r="E4">
-        <v>1.000908477431493</v>
+        <v>1.019887214873861</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03902227944646</v>
+        <v>1.02676534204749</v>
       </c>
       <c r="J4">
-        <v>1.013674287504816</v>
+        <v>1.023300126374124</v>
       </c>
       <c r="K4">
-        <v>1.021995205937552</v>
+        <v>1.026045790930264</v>
       </c>
       <c r="L4">
-        <v>1.010995950283756</v>
+        <v>1.022412621914033</v>
       </c>
       <c r="N4">
-        <v>1.015113821263139</v>
+        <v>1.02475332992774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.995190038512619</v>
+        <v>1.018919379882687</v>
       </c>
       <c r="D5">
-        <v>1.012761718474458</v>
+        <v>1.023691453723528</v>
       </c>
       <c r="E5">
-        <v>1.001754569451218</v>
+        <v>1.020085786700008</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039194783176921</v>
+        <v>1.026786716192964</v>
       </c>
       <c r="J5">
-        <v>1.014258862606899</v>
+        <v>1.023435429136954</v>
       </c>
       <c r="K5">
-        <v>1.022487722237913</v>
+        <v>1.026154482951261</v>
       </c>
       <c r="L5">
-        <v>1.011607794533012</v>
+        <v>1.022558002591647</v>
       </c>
       <c r="N5">
-        <v>1.015699226528919</v>
+        <v>1.024888824836012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9953692102621632</v>
+        <v>1.018958786403865</v>
       </c>
       <c r="D6">
-        <v>1.012882475334508</v>
+        <v>1.023718585604795</v>
       </c>
       <c r="E6">
-        <v>1.001896186823758</v>
+        <v>1.020119139591606</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039223481023273</v>
+        <v>1.026790286277134</v>
       </c>
       <c r="J6">
-        <v>1.014356616085013</v>
+        <v>1.023458145582411</v>
       </c>
       <c r="K6">
-        <v>1.02257003848484</v>
+        <v>1.0261727253743</v>
       </c>
       <c r="L6">
-        <v>1.011710142991424</v>
+        <v>1.022582415135501</v>
       </c>
       <c r="N6">
-        <v>1.015797118828184</v>
+        <v>1.024911573541429</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9941332949805963</v>
+        <v>1.018687861404622</v>
       </c>
       <c r="D7">
-        <v>1.012049626043202</v>
+        <v>1.023532034910858</v>
       </c>
       <c r="E7">
-        <v>1.00091981292658</v>
+        <v>1.019889867407854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039024602330797</v>
+        <v>1.026765628904371</v>
       </c>
       <c r="J7">
-        <v>1.013682125488543</v>
+        <v>1.023301934394784</v>
       </c>
       <c r="K7">
-        <v>1.022001812476194</v>
+        <v>1.026047243776356</v>
       </c>
       <c r="L7">
-        <v>1.011004151541571</v>
+        <v>1.022414564330069</v>
       </c>
       <c r="N7">
-        <v>1.015121670377701</v>
+        <v>1.024755140515996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.988867710542616</v>
+        <v>1.017556488144713</v>
       </c>
       <c r="D8">
-        <v>1.008504815432524</v>
+        <v>1.02275262604363</v>
       </c>
       <c r="E8">
-        <v>0.9967727096447727</v>
+        <v>1.018933268414881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038154349482895</v>
+        <v>1.026659859134844</v>
       </c>
       <c r="J8">
-        <v>1.010803840052611</v>
+        <v>1.022648791406441</v>
       </c>
       <c r="K8">
-        <v>1.019570802910672</v>
+        <v>1.025521682776714</v>
       </c>
       <c r="L8">
-        <v>1.007996574825234</v>
+        <v>1.021713345046232</v>
       </c>
       <c r="N8">
-        <v>1.012239297446307</v>
+        <v>1.024101069989694</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9791869500629471</v>
+        <v>1.015566919621536</v>
       </c>
       <c r="D9">
-        <v>1.002005310380797</v>
+        <v>1.02138061976885</v>
       </c>
       <c r="E9">
-        <v>0.9891998993099622</v>
+        <v>1.017254225255249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036469473042634</v>
+        <v>1.026463322752349</v>
       </c>
       <c r="J9">
-        <v>1.005496702021841</v>
+        <v>1.021497180595354</v>
       </c>
       <c r="K9">
-        <v>1.015065936391785</v>
+        <v>1.024591637169025</v>
       </c>
       <c r="L9">
-        <v>1.002470665169005</v>
+        <v>1.020479191775503</v>
       </c>
       <c r="N9">
-        <v>1.006924622670796</v>
+        <v>1.022947823759164</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9724360176217476</v>
+        <v>1.01424335853714</v>
       </c>
       <c r="D10">
-        <v>0.9974888498112258</v>
+        <v>1.020467006681796</v>
       </c>
       <c r="E10">
-        <v>0.9839568341479101</v>
+        <v>1.016139411385556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035239895871167</v>
+        <v>1.026325509281334</v>
       </c>
       <c r="J10">
-        <v>1.001787603339956</v>
+        <v>1.020729054047554</v>
       </c>
       <c r="K10">
-        <v>1.011903592354197</v>
+        <v>1.023969036539913</v>
       </c>
       <c r="L10">
-        <v>0.9986219231167295</v>
+        <v>1.019657503324466</v>
       </c>
       <c r="N10">
-        <v>1.003210256643343</v>
+        <v>1.02217860638356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9694359081551878</v>
+        <v>1.013670929399835</v>
       </c>
       <c r="D11">
-        <v>0.9954864856426465</v>
+        <v>1.020071675936195</v>
       </c>
       <c r="E11">
-        <v>0.9816365012088584</v>
+        <v>1.015657785902545</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034681159559071</v>
+        <v>1.026264232509397</v>
       </c>
       <c r="J11">
-        <v>1.000137882486409</v>
+        <v>1.020396371513466</v>
       </c>
       <c r="K11">
-        <v>1.010494025167034</v>
+        <v>1.023698850560095</v>
       </c>
       <c r="L11">
-        <v>0.9969132390610723</v>
+        <v>1.019301976710557</v>
       </c>
       <c r="N11">
-        <v>1.001558192996958</v>
+        <v>1.021845451402114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9683093927335347</v>
+        <v>1.013458407640179</v>
       </c>
       <c r="D12">
-        <v>0.9947354125298532</v>
+        <v>1.019924874874043</v>
       </c>
       <c r="E12">
-        <v>0.9807667529427732</v>
+        <v>1.015479055275208</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03446956494232</v>
+        <v>1.026241231460614</v>
       </c>
       <c r="J12">
-        <v>0.9995182627601173</v>
+        <v>1.020272787892932</v>
       </c>
       <c r="K12">
-        <v>1.009964173569553</v>
+        <v>1.023598403272573</v>
       </c>
       <c r="L12">
-        <v>0.9962719469182604</v>
+        <v>1.019169960238604</v>
       </c>
       <c r="N12">
-        <v>1.000937693339584</v>
+        <v>1.021721692278664</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9685515933551657</v>
+        <v>1.013503989552584</v>
       </c>
       <c r="D13">
-        <v>0.9948968556954916</v>
+        <v>1.019956362252785</v>
       </c>
       <c r="E13">
-        <v>0.9809536790941278</v>
+        <v>1.015517386036885</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034515137892541</v>
+        <v>1.026246176119496</v>
       </c>
       <c r="J13">
-        <v>0.9996514875221583</v>
+        <v>1.020299297453929</v>
       </c>
       <c r="K13">
-        <v>1.010078116340291</v>
+        <v>1.023619953525972</v>
       </c>
       <c r="L13">
-        <v>0.9964098100602353</v>
+        <v>1.019198276299677</v>
       </c>
       <c r="N13">
-        <v>1.001071107296068</v>
+        <v>1.021748239486279</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9693430412371042</v>
+        <v>1.013653360156396</v>
       </c>
       <c r="D14">
-        <v>0.9954245524730094</v>
+        <v>1.020059540439393</v>
       </c>
       <c r="E14">
-        <v>0.9815647702782769</v>
+        <v>1.015643008565644</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034663752408552</v>
+        <v>1.026262336130297</v>
       </c>
       <c r="J14">
-        <v>1.00008680574597</v>
+        <v>1.020386156259795</v>
       </c>
       <c r="K14">
-        <v>1.010450356858307</v>
+        <v>1.023690549347243</v>
       </c>
       <c r="L14">
-        <v>0.996860366176842</v>
+        <v>1.01929106332415</v>
       </c>
       <c r="N14">
-        <v>1.00150704372169</v>
+        <v>1.021835221641612</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9698290514090617</v>
+        <v>1.013745406129608</v>
       </c>
       <c r="D15">
-        <v>0.9957487068455992</v>
+        <v>1.020123117596395</v>
       </c>
       <c r="E15">
-        <v>0.9819402295022118</v>
+        <v>1.01572043087171</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034754778263381</v>
+        <v>1.026272261046527</v>
       </c>
       <c r="J15">
-        <v>1.000354104611423</v>
+        <v>1.020439671482496</v>
       </c>
       <c r="K15">
-        <v>1.010678867885973</v>
+        <v>1.023734034117037</v>
       </c>
       <c r="L15">
-        <v>0.9971370840806678</v>
+        <v>1.019348238071642</v>
       </c>
       <c r="N15">
-        <v>1.001774722182191</v>
+        <v>1.021888812862067</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9726334553882259</v>
+        <v>1.014281363262366</v>
       </c>
       <c r="D16">
-        <v>0.9976207318080772</v>
+        <v>1.020493249322909</v>
       </c>
       <c r="E16">
-        <v>0.9841097427698537</v>
+        <v>1.01617139853525</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035276414358695</v>
+        <v>1.02632954230877</v>
       </c>
       <c r="J16">
-        <v>1.001896146490039</v>
+        <v>1.02075113154558</v>
       </c>
       <c r="K16">
-        <v>1.011996273469425</v>
+        <v>1.023986955454125</v>
       </c>
       <c r="L16">
-        <v>0.9987344114034811</v>
+        <v>1.019681104260414</v>
       </c>
       <c r="N16">
-        <v>1.003318953937149</v>
+        <v>1.022200715234166</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9743715903564054</v>
+        <v>1.014617738549771</v>
       </c>
       <c r="D17">
-        <v>0.9987823003122279</v>
+        <v>1.020725496704847</v>
       </c>
       <c r="E17">
-        <v>0.9854569778422452</v>
+        <v>1.016454573425467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035596506906594</v>
+        <v>1.026365044720435</v>
       </c>
       <c r="J17">
-        <v>1.002851547486334</v>
+        <v>1.02094648207367</v>
       </c>
       <c r="K17">
-        <v>1.012811713954711</v>
+        <v>1.024145447752364</v>
       </c>
       <c r="L17">
-        <v>0.9997248961543578</v>
+        <v>1.019889975671418</v>
       </c>
       <c r="N17">
-        <v>1.004275711712445</v>
+        <v>1.022396343182413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9753780357712105</v>
+        <v>1.014814006221524</v>
       </c>
       <c r="D18">
-        <v>0.9994553374072468</v>
+        <v>1.020860988576441</v>
       </c>
       <c r="E18">
-        <v>0.9862379930270038</v>
+        <v>1.016619850201283</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035780678979196</v>
+        <v>1.026385598002435</v>
       </c>
       <c r="J18">
-        <v>1.003404624366932</v>
+        <v>1.021060419053698</v>
       </c>
       <c r="K18">
-        <v>1.013283479064574</v>
+        <v>1.024237836053597</v>
       </c>
       <c r="L18">
-        <v>1.000298581595598</v>
+        <v>1.02001183278058</v>
       </c>
       <c r="N18">
-        <v>1.004829574025652</v>
+        <v>1.022510441966021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9757199731844065</v>
+        <v>1.014880939516209</v>
       </c>
       <c r="D19">
-        <v>0.9996840732216946</v>
+        <v>1.020907192140422</v>
       </c>
       <c r="E19">
-        <v>0.986503494537456</v>
+        <v>1.016676223175987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035843050291978</v>
+        <v>1.02639257988528</v>
       </c>
       <c r="J19">
-        <v>1.003592506445083</v>
+        <v>1.021099267277473</v>
       </c>
       <c r="K19">
-        <v>1.013443689478758</v>
+        <v>1.024269328270678</v>
       </c>
       <c r="L19">
-        <v>1.000493515128479</v>
+        <v>1.020053387264761</v>
       </c>
       <c r="N19">
-        <v>1.005017722917905</v>
+        <v>1.02254934535873</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9741858723178789</v>
+        <v>1.014581641862634</v>
       </c>
       <c r="D20">
-        <v>0.9986581410620866</v>
+        <v>1.020700576066087</v>
       </c>
       <c r="E20">
-        <v>0.9853129316837894</v>
+        <v>1.016424180498347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0355624266604</v>
+        <v>1.02636125164163</v>
       </c>
       <c r="J20">
-        <v>1.002749477612415</v>
+        <v>1.020925523595526</v>
       </c>
       <c r="K20">
-        <v>1.012724626550055</v>
+        <v>1.024128448974368</v>
       </c>
       <c r="L20">
-        <v>0.999619047125931</v>
+        <v>1.019867563051685</v>
       </c>
       <c r="N20">
-        <v>1.004173496887597</v>
+        <v>1.022375354940826</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9691103196145102</v>
+        <v>1.013609371355954</v>
       </c>
       <c r="D21">
-        <v>0.9952693630085006</v>
+        <v>1.020029155850373</v>
       </c>
       <c r="E21">
-        <v>0.9813850394440374</v>
+        <v>1.015606011250593</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034620101917746</v>
+        <v>1.026257584033367</v>
       </c>
       <c r="J21">
-        <v>0.9999588065400521</v>
+        <v>1.020360578786153</v>
       </c>
       <c r="K21">
-        <v>1.010340916444701</v>
+        <v>1.02366976306111</v>
       </c>
       <c r="L21">
-        <v>0.9967278734371326</v>
+        <v>1.019263738689119</v>
       </c>
       <c r="N21">
-        <v>1.001378862742217</v>
+        <v>1.021809607845023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9658485549051492</v>
+        <v>1.012998668238277</v>
       </c>
       <c r="D22">
-        <v>0.9930962783324651</v>
+        <v>1.01960725341642</v>
       </c>
       <c r="E22">
-        <v>0.9788696744078302</v>
+        <v>1.01509256011088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034004108991088</v>
+        <v>1.026191015112243</v>
       </c>
       <c r="J22">
-        <v>0.9981644749215002</v>
+        <v>1.020005315372057</v>
       </c>
       <c r="K22">
-        <v>1.008805751210086</v>
+        <v>1.023380859468836</v>
       </c>
       <c r="L22">
-        <v>0.9948716795528443</v>
+        <v>1.018884333699299</v>
       </c>
       <c r="N22">
-        <v>0.9995819829669541</v>
+        <v>1.02145383991613</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9675845723544613</v>
+        <v>1.013322355952491</v>
       </c>
       <c r="D23">
-        <v>0.9942523940309199</v>
+        <v>1.019830887934359</v>
       </c>
       <c r="E23">
-        <v>0.9802075766389439</v>
+        <v>1.015364658260375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034332922825495</v>
+        <v>1.02622643599935</v>
       </c>
       <c r="J23">
-        <v>0.9991195480967543</v>
+        <v>1.020193652499694</v>
       </c>
       <c r="K23">
-        <v>1.009623104648175</v>
+        <v>1.023534060586481</v>
       </c>
       <c r="L23">
-        <v>0.9958594200123522</v>
+        <v>1.019085439931744</v>
       </c>
       <c r="N23">
-        <v>1.000538412455666</v>
+        <v>1.021642444504091</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9742698130671735</v>
+        <v>1.014597952199079</v>
       </c>
       <c r="D24">
-        <v>0.998714257125939</v>
+        <v>1.020711836550241</v>
       </c>
       <c r="E24">
-        <v>0.9853780347637386</v>
+        <v>1.016437913427641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035577833875575</v>
+        <v>1.026362966048664</v>
       </c>
       <c r="J24">
-        <v>1.002795611530338</v>
+        <v>1.020934993853528</v>
       </c>
       <c r="K24">
-        <v>1.012763989535054</v>
+        <v>1.024136130168495</v>
       </c>
       <c r="L24">
-        <v>0.9996668882339311</v>
+        <v>1.019877690269792</v>
       </c>
       <c r="N24">
-        <v>1.004219696320976</v>
+        <v>1.022384838647681</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817399671398361</v>
+        <v>1.016080780773281</v>
       </c>
       <c r="D25">
-        <v>1.003716904169676</v>
+        <v>1.021735137773461</v>
       </c>
       <c r="E25">
-        <v>0.9911906885873999</v>
+        <v>1.017687504281337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036923444110188</v>
+        <v>1.026515331652794</v>
       </c>
       <c r="J25">
-        <v>1.006897877688983</v>
+        <v>1.021794973300989</v>
       </c>
       <c r="K25">
-        <v>1.016257792712803</v>
+        <v>1.024832535031713</v>
       </c>
       <c r="L25">
-        <v>1.003927314620719</v>
+        <v>1.020798065560595</v>
       </c>
       <c r="N25">
-        <v>1.008327788168102</v>
+        <v>1.023246039364598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_223/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017265498297682</v>
+        <v>0.9874857713809163</v>
       </c>
       <c r="D2">
-        <v>1.022552066106101</v>
+        <v>1.007575522377289</v>
       </c>
       <c r="E2">
-        <v>1.018687445170994</v>
+        <v>0.9956876535536829</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026631938829507</v>
+        <v>1.037920193982882</v>
       </c>
       <c r="J2">
-        <v>1.022480596013615</v>
+        <v>1.010047333957283</v>
       </c>
       <c r="K2">
-        <v>1.025386111524837</v>
+        <v>1.018930317464138</v>
       </c>
       <c r="L2">
-        <v>1.021532920243654</v>
+        <v>1.007207394952279</v>
       </c>
       <c r="N2">
-        <v>1.023932635740118</v>
+        <v>1.01148171702554</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01812685219142</v>
+        <v>0.9915434767672204</v>
       </c>
       <c r="D3">
-        <v>1.023145628004424</v>
+        <v>1.010305404988201</v>
       </c>
       <c r="E3">
-        <v>1.019415355757227</v>
+        <v>0.9988775608104612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026713740711176</v>
+        <v>1.038601071891504</v>
       </c>
       <c r="J3">
-        <v>1.02297822480766</v>
+        <v>1.012267360264413</v>
       </c>
       <c r="K3">
-        <v>1.025786946181015</v>
+        <v>1.020808102690781</v>
       </c>
       <c r="L3">
-        <v>1.022066909360582</v>
+        <v>1.009524823630364</v>
       </c>
       <c r="N3">
-        <v>1.024430971224129</v>
+        <v>1.013704896024678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018684726435612</v>
+        <v>0.9941189377028486</v>
       </c>
       <c r="D4">
-        <v>1.023529876056189</v>
+        <v>1.01203995279596</v>
       </c>
       <c r="E4">
-        <v>1.019887214873861</v>
+        <v>1.000908477431492</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02676534204749</v>
+        <v>1.039022279446459</v>
       </c>
       <c r="J4">
-        <v>1.023300126374124</v>
+        <v>1.013674287504815</v>
       </c>
       <c r="K4">
-        <v>1.026045790930264</v>
+        <v>1.021995205937551</v>
       </c>
       <c r="L4">
-        <v>1.022412621914033</v>
+        <v>1.010995950283756</v>
       </c>
       <c r="N4">
-        <v>1.02475332992774</v>
+        <v>1.015113821263137</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018919379882687</v>
+        <v>0.9951900385126193</v>
       </c>
       <c r="D5">
-        <v>1.023691453723528</v>
+        <v>1.012761718474459</v>
       </c>
       <c r="E5">
-        <v>1.020085786700008</v>
+        <v>1.001754569451219</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026786716192964</v>
+        <v>1.039194783176921</v>
       </c>
       <c r="J5">
-        <v>1.023435429136954</v>
+        <v>1.014258862606899</v>
       </c>
       <c r="K5">
-        <v>1.026154482951261</v>
+        <v>1.022487722237913</v>
       </c>
       <c r="L5">
-        <v>1.022558002591647</v>
+        <v>1.011607794533012</v>
       </c>
       <c r="N5">
-        <v>1.024888824836012</v>
+        <v>1.015699226528919</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018958786403865</v>
+        <v>0.9953692102621635</v>
       </c>
       <c r="D6">
-        <v>1.023718585604795</v>
+        <v>1.012882475334508</v>
       </c>
       <c r="E6">
-        <v>1.020119139591606</v>
+        <v>1.001896186823758</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026790286277134</v>
+        <v>1.039223481023273</v>
       </c>
       <c r="J6">
-        <v>1.023458145582411</v>
+        <v>1.014356616085013</v>
       </c>
       <c r="K6">
-        <v>1.0261727253743</v>
+        <v>1.02257003848484</v>
       </c>
       <c r="L6">
-        <v>1.022582415135501</v>
+        <v>1.011710142991424</v>
       </c>
       <c r="N6">
-        <v>1.024911573541429</v>
+        <v>1.015797118828184</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018687861404622</v>
+        <v>0.9941332949805955</v>
       </c>
       <c r="D7">
-        <v>1.023532034910858</v>
+        <v>1.012049626043201</v>
       </c>
       <c r="E7">
-        <v>1.019889867407854</v>
+        <v>1.000919812926579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026765628904371</v>
+        <v>1.039024602330796</v>
       </c>
       <c r="J7">
-        <v>1.023301934394784</v>
+        <v>1.013682125488542</v>
       </c>
       <c r="K7">
-        <v>1.026047243776356</v>
+        <v>1.022001812476194</v>
       </c>
       <c r="L7">
-        <v>1.022414564330069</v>
+        <v>1.01100415154157</v>
       </c>
       <c r="N7">
-        <v>1.024755140515996</v>
+        <v>1.015121670377701</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017556488144713</v>
+        <v>0.9888677105426161</v>
       </c>
       <c r="D8">
-        <v>1.02275262604363</v>
+        <v>1.008504815432525</v>
       </c>
       <c r="E8">
-        <v>1.018933268414881</v>
+        <v>0.9967727096447728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026659859134844</v>
+        <v>1.038154349482895</v>
       </c>
       <c r="J8">
-        <v>1.022648791406441</v>
+        <v>1.010803840052612</v>
       </c>
       <c r="K8">
-        <v>1.025521682776714</v>
+        <v>1.019570802910672</v>
       </c>
       <c r="L8">
-        <v>1.021713345046232</v>
+        <v>1.007996574825234</v>
       </c>
       <c r="N8">
-        <v>1.024101069989694</v>
+        <v>1.012239297446307</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015566919621536</v>
+        <v>0.9791869500629474</v>
       </c>
       <c r="D9">
-        <v>1.02138061976885</v>
+        <v>1.002005310380797</v>
       </c>
       <c r="E9">
-        <v>1.017254225255249</v>
+        <v>0.9891998993099623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026463322752349</v>
+        <v>1.036469473042634</v>
       </c>
       <c r="J9">
-        <v>1.021497180595354</v>
+        <v>1.005496702021841</v>
       </c>
       <c r="K9">
-        <v>1.024591637169025</v>
+        <v>1.015065936391786</v>
       </c>
       <c r="L9">
-        <v>1.020479191775503</v>
+        <v>1.002470665169005</v>
       </c>
       <c r="N9">
-        <v>1.022947823759164</v>
+        <v>1.006924622670796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01424335853714</v>
+        <v>0.9724360176217473</v>
       </c>
       <c r="D10">
-        <v>1.020467006681796</v>
+        <v>0.9974888498112258</v>
       </c>
       <c r="E10">
-        <v>1.016139411385556</v>
+        <v>0.98395683414791</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026325509281334</v>
+        <v>1.035239895871166</v>
       </c>
       <c r="J10">
-        <v>1.020729054047554</v>
+        <v>1.001787603339956</v>
       </c>
       <c r="K10">
-        <v>1.023969036539913</v>
+        <v>1.011903592354197</v>
       </c>
       <c r="L10">
-        <v>1.019657503324466</v>
+        <v>0.9986219231167295</v>
       </c>
       <c r="N10">
-        <v>1.02217860638356</v>
+        <v>1.003210256643342</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013670929399835</v>
+        <v>0.9694359081551875</v>
       </c>
       <c r="D11">
-        <v>1.020071675936195</v>
+        <v>0.9954864856426464</v>
       </c>
       <c r="E11">
-        <v>1.015657785902545</v>
+        <v>0.981636501208858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026264232509397</v>
+        <v>1.034681159559071</v>
       </c>
       <c r="J11">
-        <v>1.020396371513466</v>
+        <v>1.000137882486409</v>
       </c>
       <c r="K11">
-        <v>1.023698850560095</v>
+        <v>1.010494025167034</v>
       </c>
       <c r="L11">
-        <v>1.019301976710557</v>
+        <v>0.9969132390610719</v>
       </c>
       <c r="N11">
-        <v>1.021845451402114</v>
+        <v>1.001558192996958</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013458407640179</v>
+        <v>0.9683093927335351</v>
       </c>
       <c r="D12">
-        <v>1.019924874874043</v>
+        <v>0.9947354125298538</v>
       </c>
       <c r="E12">
-        <v>1.015479055275208</v>
+        <v>0.9807667529427732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026241231460614</v>
+        <v>1.03446956494232</v>
       </c>
       <c r="J12">
-        <v>1.020272787892932</v>
+        <v>0.9995182627601179</v>
       </c>
       <c r="K12">
-        <v>1.023598403272573</v>
+        <v>1.009964173569553</v>
       </c>
       <c r="L12">
-        <v>1.019169960238604</v>
+        <v>0.9962719469182605</v>
       </c>
       <c r="N12">
-        <v>1.021721692278664</v>
+        <v>1.000937693339584</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013503989552584</v>
+        <v>0.9685515933551658</v>
       </c>
       <c r="D13">
-        <v>1.019956362252785</v>
+        <v>0.9948968556954914</v>
       </c>
       <c r="E13">
-        <v>1.015517386036885</v>
+        <v>0.9809536790941277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026246176119496</v>
+        <v>1.034515137892541</v>
       </c>
       <c r="J13">
-        <v>1.020299297453929</v>
+        <v>0.999651487522158</v>
       </c>
       <c r="K13">
-        <v>1.023619953525972</v>
+        <v>1.010078116340291</v>
       </c>
       <c r="L13">
-        <v>1.019198276299677</v>
+        <v>0.9964098100602352</v>
       </c>
       <c r="N13">
-        <v>1.021748239486279</v>
+        <v>1.001071107296068</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013653360156396</v>
+        <v>0.9693430412371041</v>
       </c>
       <c r="D14">
-        <v>1.020059540439393</v>
+        <v>0.9954245524730094</v>
       </c>
       <c r="E14">
-        <v>1.015643008565644</v>
+        <v>0.981564770278277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026262336130297</v>
+        <v>1.034663752408552</v>
       </c>
       <c r="J14">
-        <v>1.020386156259795</v>
+        <v>1.00008680574597</v>
       </c>
       <c r="K14">
-        <v>1.023690549347243</v>
+        <v>1.010450356858307</v>
       </c>
       <c r="L14">
-        <v>1.01929106332415</v>
+        <v>0.9968603661768421</v>
       </c>
       <c r="N14">
-        <v>1.021835221641612</v>
+        <v>1.00150704372169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013745406129608</v>
+        <v>0.9698290514090625</v>
       </c>
       <c r="D15">
-        <v>1.020123117596395</v>
+        <v>0.9957487068455999</v>
       </c>
       <c r="E15">
-        <v>1.01572043087171</v>
+        <v>0.9819402295022123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026272261046527</v>
+        <v>1.034754778263381</v>
       </c>
       <c r="J15">
-        <v>1.020439671482496</v>
+        <v>1.000354104611424</v>
       </c>
       <c r="K15">
-        <v>1.023734034117037</v>
+        <v>1.010678867885974</v>
       </c>
       <c r="L15">
-        <v>1.019348238071642</v>
+        <v>0.9971370840806683</v>
       </c>
       <c r="N15">
-        <v>1.021888812862067</v>
+        <v>1.001774722182191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014281363262366</v>
+        <v>0.9726334553882267</v>
       </c>
       <c r="D16">
-        <v>1.020493249322909</v>
+        <v>0.997620731808078</v>
       </c>
       <c r="E16">
-        <v>1.01617139853525</v>
+        <v>0.9841097427698541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02632954230877</v>
+        <v>1.035276414358696</v>
       </c>
       <c r="J16">
-        <v>1.02075113154558</v>
+        <v>1.001896146490039</v>
       </c>
       <c r="K16">
-        <v>1.023986955454125</v>
+        <v>1.011996273469426</v>
       </c>
       <c r="L16">
-        <v>1.019681104260414</v>
+        <v>0.9987344114034815</v>
       </c>
       <c r="N16">
-        <v>1.022200715234166</v>
+        <v>1.00331895393715</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014617738549771</v>
+        <v>0.9743715903564054</v>
       </c>
       <c r="D17">
-        <v>1.020725496704847</v>
+        <v>0.9987823003122277</v>
       </c>
       <c r="E17">
-        <v>1.016454573425467</v>
+        <v>0.9854569778422451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026365044720435</v>
+        <v>1.035596506906594</v>
       </c>
       <c r="J17">
-        <v>1.02094648207367</v>
+        <v>1.002851547486334</v>
       </c>
       <c r="K17">
-        <v>1.024145447752364</v>
+        <v>1.012811713954711</v>
       </c>
       <c r="L17">
-        <v>1.019889975671418</v>
+        <v>0.9997248961543577</v>
       </c>
       <c r="N17">
-        <v>1.022396343182413</v>
+        <v>1.004275711712445</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014814006221524</v>
+        <v>0.9753780357712117</v>
       </c>
       <c r="D18">
-        <v>1.020860988576441</v>
+        <v>0.9994553374072479</v>
       </c>
       <c r="E18">
-        <v>1.016619850201283</v>
+        <v>0.9862379930270048</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026385598002435</v>
+        <v>1.035780678979196</v>
       </c>
       <c r="J18">
-        <v>1.021060419053698</v>
+        <v>1.003404624366933</v>
       </c>
       <c r="K18">
-        <v>1.024237836053597</v>
+        <v>1.013283479064575</v>
       </c>
       <c r="L18">
-        <v>1.02001183278058</v>
+        <v>1.000298581595599</v>
       </c>
       <c r="N18">
-        <v>1.022510441966021</v>
+        <v>1.004829574025653</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014880939516209</v>
+        <v>0.9757199731844063</v>
       </c>
       <c r="D19">
-        <v>1.020907192140422</v>
+        <v>0.9996840732216943</v>
       </c>
       <c r="E19">
-        <v>1.016676223175987</v>
+        <v>0.9865034945374558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02639257988528</v>
+        <v>1.035843050291978</v>
       </c>
       <c r="J19">
-        <v>1.021099267277473</v>
+        <v>1.003592506445083</v>
       </c>
       <c r="K19">
-        <v>1.024269328270678</v>
+        <v>1.013443689478758</v>
       </c>
       <c r="L19">
-        <v>1.020053387264761</v>
+        <v>1.000493515128478</v>
       </c>
       <c r="N19">
-        <v>1.02254934535873</v>
+        <v>1.005017722917904</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014581641862634</v>
+        <v>0.9741858723178782</v>
       </c>
       <c r="D20">
-        <v>1.020700576066087</v>
+        <v>0.9986581410620862</v>
       </c>
       <c r="E20">
-        <v>1.016424180498347</v>
+        <v>0.9853129316837893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02636125164163</v>
+        <v>1.035562426660399</v>
       </c>
       <c r="J20">
-        <v>1.020925523595526</v>
+        <v>1.002749477612414</v>
       </c>
       <c r="K20">
-        <v>1.024128448974368</v>
+        <v>1.012724626550055</v>
       </c>
       <c r="L20">
-        <v>1.019867563051685</v>
+        <v>0.9996190471259306</v>
       </c>
       <c r="N20">
-        <v>1.022375354940826</v>
+        <v>1.004173496887596</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013609371355954</v>
+        <v>0.9691103196145099</v>
       </c>
       <c r="D21">
-        <v>1.020029155850373</v>
+        <v>0.9952693630085002</v>
       </c>
       <c r="E21">
-        <v>1.015606011250593</v>
+        <v>0.9813850394440371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026257584033367</v>
+        <v>1.034620101917746</v>
       </c>
       <c r="J21">
-        <v>1.020360578786153</v>
+        <v>0.9999588065400519</v>
       </c>
       <c r="K21">
-        <v>1.02366976306111</v>
+        <v>1.010340916444701</v>
       </c>
       <c r="L21">
-        <v>1.019263738689119</v>
+        <v>0.9967278734371324</v>
       </c>
       <c r="N21">
-        <v>1.021809607845023</v>
+        <v>1.001378862742217</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012998668238277</v>
+        <v>0.9658485549051492</v>
       </c>
       <c r="D22">
-        <v>1.01960725341642</v>
+        <v>0.9930962783324652</v>
       </c>
       <c r="E22">
-        <v>1.01509256011088</v>
+        <v>0.9788696744078303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026191015112243</v>
+        <v>1.034004108991088</v>
       </c>
       <c r="J22">
-        <v>1.020005315372057</v>
+        <v>0.9981644749215004</v>
       </c>
       <c r="K22">
-        <v>1.023380859468836</v>
+        <v>1.008805751210086</v>
       </c>
       <c r="L22">
-        <v>1.018884333699299</v>
+        <v>0.9948716795528444</v>
       </c>
       <c r="N22">
-        <v>1.02145383991613</v>
+        <v>0.9995819829669543</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013322355952491</v>
+        <v>0.9675845723544623</v>
       </c>
       <c r="D23">
-        <v>1.019830887934359</v>
+        <v>0.9942523940309204</v>
       </c>
       <c r="E23">
-        <v>1.015364658260375</v>
+        <v>0.9802075766389445</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02622643599935</v>
+        <v>1.034332922825495</v>
       </c>
       <c r="J23">
-        <v>1.020193652499694</v>
+        <v>0.999119548096755</v>
       </c>
       <c r="K23">
-        <v>1.023534060586481</v>
+        <v>1.009623104648175</v>
       </c>
       <c r="L23">
-        <v>1.019085439931744</v>
+        <v>0.9958594200123528</v>
       </c>
       <c r="N23">
-        <v>1.021642444504091</v>
+        <v>1.000538412455666</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014597952199079</v>
+        <v>0.9742698130671739</v>
       </c>
       <c r="D24">
-        <v>1.020711836550241</v>
+        <v>0.9987142571259393</v>
       </c>
       <c r="E24">
-        <v>1.016437913427641</v>
+        <v>0.985378034763739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026362966048664</v>
+        <v>1.035577833875575</v>
       </c>
       <c r="J24">
-        <v>1.020934993853528</v>
+        <v>1.002795611530338</v>
       </c>
       <c r="K24">
-        <v>1.024136130168495</v>
+        <v>1.012763989535054</v>
       </c>
       <c r="L24">
-        <v>1.019877690269792</v>
+        <v>0.9996668882339313</v>
       </c>
       <c r="N24">
-        <v>1.022384838647681</v>
+        <v>1.004219696320976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016080780773281</v>
+        <v>0.9817399671398361</v>
       </c>
       <c r="D25">
-        <v>1.021735137773461</v>
+        <v>1.003716904169676</v>
       </c>
       <c r="E25">
-        <v>1.017687504281337</v>
+        <v>0.9911906885873998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026515331652794</v>
+        <v>1.036923444110188</v>
       </c>
       <c r="J25">
-        <v>1.021794973300989</v>
+        <v>1.006897877688983</v>
       </c>
       <c r="K25">
-        <v>1.024832535031713</v>
+        <v>1.016257792712803</v>
       </c>
       <c r="L25">
-        <v>1.020798065560595</v>
+        <v>1.003927314620719</v>
       </c>
       <c r="N25">
-        <v>1.023246039364598</v>
+        <v>1.008327788168102</v>
       </c>
     </row>
   </sheetData>
